--- a/data-raw/mean_cpi_level.xlsx
+++ b/data-raw/mean_cpi_level.xlsx
@@ -237,7 +237,7 @@
   <sheetPr filterMode="0" enableFormatConditionsCalculation="0">
     <pageSetUpPr fitToPage="0"/>
   </sheetPr>
-  <dimension ref="A1:K226"/>
+  <dimension ref="A1:K228"/>
   <sheetViews>
     <sheetView zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <pane xSplit="0" ySplit="1" topLeftCell="A2" activePane="bottomRight" state="frozen"/>
@@ -8168,7 +8168,77 @@
         <v>2.3207</v>
       </c>
     </row>
-    <row r="227" ht="13" customHeight="1"/>
+    <row r="227" ht="15" customHeight="1">
+      <c r="A227" s="3">
+        <v>2025.0000</v>
+      </c>
+      <c r="B227" s="3">
+        <v>1.0000</v>
+      </c>
+      <c r="C227" s="4">
+        <v>3.1011</v>
+      </c>
+      <c r="D227" s="4">
+        <v>3.0179</v>
+      </c>
+      <c r="E227" s="4">
+        <v>2.7581</v>
+      </c>
+      <c r="F227" s="4">
+        <v>2.6742</v>
+      </c>
+      <c r="G227" s="4">
+        <v>2.6316</v>
+      </c>
+      <c r="H227" s="4">
+        <v>2.6809</v>
+      </c>
+      <c r="I227" s="4">
+        <v>2.7795</v>
+      </c>
+      <c r="J227" s="4">
+        <v>2.6100</v>
+      </c>
+      <c r="K227" s="4">
+        <v>2.3165</v>
+      </c>
+    </row>
+    <row r="228" ht="15" customHeight="1">
+      <c r="A228" s="3">
+        <v>2025.0000</v>
+      </c>
+      <c r="B228" s="3">
+        <v>2.0000</v>
+      </c>
+      <c r="C228" s="4">
+        <v>3.7981</v>
+      </c>
+      <c r="D228" s="4">
+        <v>3.1345</v>
+      </c>
+      <c r="E228" s="4">
+        <v>3.6809</v>
+      </c>
+      <c r="F228" s="4">
+        <v>3.0852</v>
+      </c>
+      <c r="G228" s="4">
+        <v>2.9419</v>
+      </c>
+      <c r="H228" s="4">
+        <v>2.6539</v>
+      </c>
+      <c r="I228" s="4">
+        <v>3.4110</v>
+      </c>
+      <c r="J228" s="4">
+        <v>2.6699</v>
+      </c>
+      <c r="K228" s="4">
+        <v>2.4523</v>
+      </c>
+    </row>
+    <row r="229" ht="13" customHeight="1"/>
   </sheetData>
   <printOptions headings="0" horizontalCentered="0" verticalCentered="0" gridLines="0"/>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0" footer="0"/>

--- a/data-raw/mean_cpi_level.xlsx
+++ b/data-raw/mean_cpi_level.xlsx
@@ -237,7 +237,7 @@
   <sheetPr filterMode="0" enableFormatConditionsCalculation="0">
     <pageSetUpPr fitToPage="0"/>
   </sheetPr>
-  <dimension ref="A1:K228"/>
+  <dimension ref="A1:K229"/>
   <sheetViews>
     <sheetView zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <pane xSplit="0" ySplit="1" topLeftCell="A2" activePane="bottomRight" state="frozen"/>
@@ -8238,7 +8238,42 @@
         <v>2.4523</v>
       </c>
     </row>
-    <row r="229" ht="13" customHeight="1"/>
+    <row r="229" ht="15" customHeight="1">
+      <c r="A229" s="3">
+        <v>2025.0000</v>
+      </c>
+      <c r="B229" s="3">
+        <v>3.0000</v>
+      </c>
+      <c r="C229" s="4">
+        <v>1.6028</v>
+      </c>
+      <c r="D229" s="4">
+        <v>2.9055</v>
+      </c>
+      <c r="E229" s="4">
+        <v>3.0373</v>
+      </c>
+      <c r="F229" s="4">
+        <v>2.6788</v>
+      </c>
+      <c r="G229" s="4">
+        <v>2.5119</v>
+      </c>
+      <c r="H229" s="4">
+        <v>2.4805</v>
+      </c>
+      <c r="I229" s="4">
+        <v>2.8328</v>
+      </c>
+      <c r="J229" s="4">
+        <v>2.5440</v>
+      </c>
+      <c r="K229" s="4">
+        <v>2.3215</v>
+      </c>
+    </row>
+    <row r="230" ht="13" customHeight="1"/>
   </sheetData>
   <printOptions headings="0" horizontalCentered="0" verticalCentered="0" gridLines="0"/>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0" footer="0"/>

--- a/data-raw/mean_cpi_level.xlsx
+++ b/data-raw/mean_cpi_level.xlsx
@@ -237,7 +237,7 @@
   <sheetPr filterMode="0" enableFormatConditionsCalculation="0">
     <pageSetUpPr fitToPage="0"/>
   </sheetPr>
-  <dimension ref="A1:K229"/>
+  <dimension ref="A1:K230"/>
   <sheetViews>
     <sheetView zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <pane xSplit="0" ySplit="1" topLeftCell="A2" activePane="bottomRight" state="frozen"/>
@@ -8273,7 +8273,42 @@
         <v>2.3215</v>
       </c>
     </row>
-    <row r="230" ht="13" customHeight="1"/>
+    <row r="230" ht="15" customHeight="1">
+      <c r="A230" s="3">
+        <v>2025.0000</v>
+      </c>
+      <c r="B230" s="3">
+        <v>4.0000</v>
+      </c>
+      <c r="C230" s="4">
+        <v>3.1049</v>
+      </c>
+      <c r="D230" s="4">
+        <v>3.0676</v>
+      </c>
+      <c r="E230" s="4">
+        <v>2.9489</v>
+      </c>
+      <c r="F230" s="4">
+        <v>2.7509</v>
+      </c>
+      <c r="G230" s="4">
+        <v>2.6968</v>
+      </c>
+      <c r="H230" s="4">
+        <v>2.5972</v>
+      </c>
+      <c r="I230" s="4">
+        <v>2.8930</v>
+      </c>
+      <c r="J230" s="4">
+        <v>2.7480</v>
+      </c>
+      <c r="K230" s="4">
+        <v>2.4750</v>
+      </c>
+    </row>
+    <row r="231" ht="13" customHeight="1"/>
   </sheetData>
   <printOptions headings="0" horizontalCentered="0" verticalCentered="0" gridLines="0"/>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0" footer="0"/>
